--- a/Testreultat.xlsx
+++ b/Testreultat.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Ngram</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>% rätt</t>
+  </si>
+  <si>
+    <t>Enkla meningar "easy:english:sentences.txt"</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -104,12 +113,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -400,13 +409,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -429,16 +438,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>46060</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>37404</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8656</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E6" si="0">C3/B3</f>
         <v>0.81207121146330874</v>
       </c>
@@ -447,16 +456,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>46060</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>35881</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>10179</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.77900564481111589</v>
       </c>
@@ -465,16 +474,16 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>46060</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>35907</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>10153</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.77957012592270947</v>
       </c>
@@ -483,16 +492,16 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>46060</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>35907</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>10153</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.77957012592270947</v>
       </c>
@@ -501,28 +510,28 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>46060</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>35907</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>10153</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>C7/B7</f>
         <v>0.77957012592270947</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -545,16 +554,16 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6655</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>5118</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1537</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>C12/B12</f>
         <v>0.769045830202855</v>
       </c>
@@ -563,16 +572,16 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>6655</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4943</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1712</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" ref="E13:E16" si="1">C13/B13</f>
         <v>0.74274981217129976</v>
       </c>
@@ -581,16 +590,16 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6655</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>4945</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1710</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>0.74305033809166043</v>
       </c>
@@ -599,16 +608,16 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>6655</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>4945</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>1710</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.74305033809166043</v>
       </c>
@@ -617,24 +626,146 @@
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>6655</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4945</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>1710</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.74305033809166043</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4784034</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4097538</v>
+      </c>
+      <c r="D20" s="1">
+        <v>686496</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20/B20</f>
+        <v>0.85650269207952956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4784034</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3921207</v>
+      </c>
+      <c r="D21" s="1">
+        <v>862827</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21:E24" si="2">C21/B21</f>
+        <v>0.81964446740972163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4784034</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3921884</v>
+      </c>
+      <c r="D22" s="1">
+        <v>862150</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81978597978191625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4784034</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3921868</v>
+      </c>
+      <c r="D23" s="1">
+        <v>862166</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81978263532408002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testreultat.xlsx
+++ b/Testreultat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -119,6 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +401,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +698,7 @@
       <c r="D21" s="1">
         <v>862827</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f t="shared" ref="E21:E24" si="2">C21/B21</f>
         <v>0.81964446740972163</v>
       </c>
@@ -715,7 +716,7 @@
       <c r="D22" s="1">
         <v>862150</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>0.81978597978191625</v>
       </c>
@@ -733,7 +734,7 @@
       <c r="D23" s="1">
         <v>862166</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>0.81978263532408002</v>
       </c>

--- a/Testreultat.xlsx
+++ b/Testreultat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Ngram</t>
   </si>
@@ -47,19 +47,31 @@
     <t>Blandade tecken "sms_corpus.txt"</t>
   </si>
   <si>
-    <t>Endast bosktäver "sms_corpus_letters_only.txt"</t>
-  </si>
-  <si>
     <t>% rätt</t>
-  </si>
-  <si>
-    <t>Enkla meningar "easy:english:sentences.txt"</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>9000ord.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS </t>
+  </si>
+  <si>
+    <t>sms_corpus_letters_only.txt</t>
+  </si>
+  <si>
+    <t>Enkla meningar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "easy:english:sentences.txt"</t>
+  </si>
+  <si>
+    <t>8447 ord</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -119,7 +131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +147,1363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="1"/>
+              <a:t>Testresultat</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1800" b="1" baseline="0"/>
+              <a:t> t9</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enkla meningar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.922554335897834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.885704085126414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.885845597380288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.885842252925248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMS </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.815026296018032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.789181066867017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.789481592787378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.789481592787378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8447 ord</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.927311471528353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1635533264"/>
+        <c:axId val="-1635531216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1635533264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400" b="1"/>
+                  <a:t>N-gram</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1635531216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1635531216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400" b="1"/>
+                  <a:t>% korrekt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0131386861313869"/>
+              <c:y val="0.465701768732914"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1635533264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.136152077705615"/>
+          <c:y val="0.103783499614477"/>
+          <c:w val="0.755432955917007"/>
+          <c:h val="0.0945849202084161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -448,7 +1819,7 @@
       <c r="D3" s="1">
         <v>8656</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E6" si="0">C3/B3</f>
         <v>0.81207121146330874</v>
       </c>
@@ -466,7 +1837,7 @@
       <c r="D4" s="1">
         <v>10179</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>0.77900564481111589</v>
       </c>
@@ -484,7 +1855,7 @@
       <c r="D5" s="1">
         <v>10153</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0.77957012592270947</v>
       </c>
@@ -502,7 +1873,7 @@
       <c r="D6" s="1">
         <v>10153</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0.77957012592270947</v>
       </c>
@@ -520,19 +1891,21 @@
       <c r="D7" s="1">
         <v>10153</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <f>C7/B7</f>
         <v>0.77957012592270947</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -559,14 +1932,15 @@
         <v>6655</v>
       </c>
       <c r="C12" s="1">
-        <v>5118</v>
+        <f>B12-D12</f>
+        <v>5424</v>
       </c>
       <c r="D12" s="1">
-        <v>1537</v>
-      </c>
-      <c r="E12" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E12" s="5">
         <f>C12/B12</f>
-        <v>0.769045830202855</v>
+        <v>0.81502629601803156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,14 +1951,15 @@
         <v>6655</v>
       </c>
       <c r="C13" s="1">
-        <v>4943</v>
+        <f t="shared" ref="C13:C16" si="1">B13-D13</f>
+        <v>5252</v>
       </c>
       <c r="D13" s="1">
-        <v>1712</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:E16" si="1">C13/B13</f>
-        <v>0.74274981217129976</v>
+        <v>1403</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E16" si="2">C13/B13</f>
+        <v>0.78918106686701728</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,14 +1970,15 @@
         <v>6655</v>
       </c>
       <c r="C14" s="1">
-        <v>4945</v>
+        <f t="shared" si="1"/>
+        <v>5254</v>
       </c>
       <c r="D14" s="1">
-        <v>1710</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.74305033809166043</v>
+        <v>1401</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78948159278737795</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,14 +1989,15 @@
         <v>6655</v>
       </c>
       <c r="C15" s="1">
-        <v>4945</v>
+        <f t="shared" si="1"/>
+        <v>5254</v>
       </c>
       <c r="D15" s="1">
-        <v>1710</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.74305033809166043</v>
+        <v>1401</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78948159278737795</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,24 +2008,27 @@
         <v>6655</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="1"/>
         <v>4945</v>
       </c>
       <c r="D16" s="1">
         <v>1710</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
         <v>0.74305033809166043</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -672,17 +2052,18 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>4784034</v>
+        <v>4784038</v>
       </c>
       <c r="C20" s="1">
-        <v>4097538</v>
+        <f>B20-D20</f>
+        <v>4413535</v>
       </c>
       <c r="D20" s="1">
-        <v>686496</v>
-      </c>
-      <c r="E20" s="2">
+        <v>370503</v>
+      </c>
+      <c r="E20" s="5">
         <f>C20/B20</f>
-        <v>0.85650269207952956</v>
+        <v>0.92255433589783353</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,17 +2071,18 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>4784034</v>
+        <v>4784038</v>
       </c>
       <c r="C21" s="1">
-        <v>3921207</v>
+        <f t="shared" ref="C21:C23" si="3">B21-D21</f>
+        <v>4237242</v>
       </c>
       <c r="D21" s="1">
-        <v>862827</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ref="E21:E24" si="2">C21/B21</f>
-        <v>0.81964446740972163</v>
+        <v>546796</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E24" si="4">C21/B21</f>
+        <v>0.88570408512641408</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -708,17 +2090,18 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>4784034</v>
+        <v>4784038</v>
       </c>
       <c r="C22" s="1">
-        <v>3921884</v>
+        <f t="shared" si="3"/>
+        <v>4237919</v>
       </c>
       <c r="D22" s="1">
-        <v>862150</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.81978597978191625</v>
+        <v>546119</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88584559738028834</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,17 +2109,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>4784034</v>
+        <v>4784038</v>
       </c>
       <c r="C23" s="1">
-        <v>3921868</v>
+        <f t="shared" si="3"/>
+        <v>4237903</v>
       </c>
       <c r="D23" s="1">
-        <v>862166</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.81978263532408002</v>
+        <v>546135</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88584225292524854</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,30 +2128,75 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8447</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7833</v>
+      </c>
+      <c r="D29" s="1">
+        <v>614</v>
+      </c>
+      <c r="E29" s="5">
+        <f>C29/B29</f>
+        <v>0.92731147152835325</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>